--- a/files/conference-list.xlsx
+++ b/files/conference-list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smartzmz/work/personal_web/mingzhe-zhang.github.io/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CD169F-200C-2441-905E-F88E59B3E867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E415CA-C2EF-1B4B-BB32-FECE8348FB59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="820" windowWidth="24940" windowHeight="14660" xr2:uid="{C82D8F12-2830-6042-9EE6-593C8299F34A}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="24940" windowHeight="14660" xr2:uid="{C82D8F12-2830-6042-9EE6-593C8299F34A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>Month</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +161,218 @@
   </si>
   <si>
     <t>Denver, CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICDCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-07-08..10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-07..10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-12-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-07-02..06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vienna, Austria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-06-05..08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://icdcs2020.sg/</t>
+  </si>
+  <si>
+    <t>http://theory.utdallas.edu/ICDCS2019</t>
+  </si>
+  <si>
+    <t>http://icdcs2018.ocg.at/</t>
+  </si>
+  <si>
+    <t>https://icdcs2017.gatech.edu/</t>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.computingfrontiers.org/2020/</t>
+  </si>
+  <si>
+    <t>http://www.computingfrontiers.org/2019/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.computingfrontiers.org/2018/</t>
+  </si>
+  <si>
+    <t>http://www.computingfrontiers.org/2017/</t>
+  </si>
+  <si>
+    <t>http://www.computingfrontiers.org/2016/</t>
+  </si>
+  <si>
+    <t>2020-01-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-05-11..13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-03-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catania, Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-05-01..03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sardinia, Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-05-08..10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-03-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ischia, Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-01-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-05-15..17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-03-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siena, Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-05-16..18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-03-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Como, Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPDC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F5BA5E-571F-0C49-A338-02B93EA9C50A}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -557,7 +770,7 @@
     <col min="1" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="38.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,13 +930,343 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{36680EED-FC6B-7640-BC6F-754E85648455}"/>
     <hyperlink ref="H5" r:id="rId2" display="https://www.usenix.org/conference/atc19" xr:uid="{57FA351D-3C58-7248-80C8-9BDC8DFB36E4}"/>
-    <hyperlink ref="A1" r:id="rId3" display="https://www.usenix.org/conference/atc19" xr:uid="{E129EEB2-3102-CA4B-9286-922030A00AFF}"/>
+    <hyperlink ref="A1" r:id="rId3" display="http://www.computingfrontiers.org/2019/" xr:uid="{E129EEB2-3102-CA4B-9286-922030A00AFF}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{A5096D24-6D49-1948-9A18-D0A22DC4ED7F}"/>
+    <hyperlink ref="H15" r:id="rId5" display="http://www.computingfrontiers.org/2019/" xr:uid="{1CBA6800-BD34-4746-84EB-C0BAF9E1CFBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC2A25A-974A-4148-BD79-4081B6229815}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>